--- a/source/excel/nwsl-2016/nwsl-2016-crs-hou-072316.xlsx
+++ b/source/excel/nwsl-2016/nwsl-2016-crs-hou-072316.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/push/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26194" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26194" uniqueCount="173">
   <si>
     <t>event</t>
   </si>
@@ -522,9 +522,6 @@
   </si>
   <si>
     <t>45+2</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>90+1</t>
@@ -1184,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1455"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A1197" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M1198" sqref="M1198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1268,7 +1265,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>21</v>
@@ -1289,7 +1286,7 @@
         <v>25</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>21</v>
@@ -1770,7 +1767,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>93</v>
@@ -1791,7 +1788,7 @@
         <v>21</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M10" s="11" t="s">
         <v>96</v>
@@ -1871,7 +1868,7 @@
         <v>20</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S11" s="2" t="s">
         <v>20</v>
@@ -1933,7 +1930,7 @@
         <v>20</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>20</v>
@@ -2384,13 +2381,13 @@
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>131</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>132</v>
@@ -2405,13 +2402,13 @@
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K20" s="18" t="s">
         <v>131</v>
       </c>
       <c r="L20" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>133</v>
@@ -2452,7 +2449,7 @@
         <v>131</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F21" s="20" t="s">
         <v>134</v>
@@ -2473,7 +2470,7 @@
         <v>131</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>135</v>
@@ -3447,7 +3444,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G37" s="34" t="s">
         <v>20</v>
@@ -3969,7 +3966,7 @@
       </c>
       <c r="Q45" s="22"/>
       <c r="R45" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S45" s="22" t="s">
         <v>20</v>
@@ -4091,7 +4088,7 @@
       </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S47" s="22" t="s">
         <v>20</v>
@@ -4335,7 +4332,7 @@
       </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S51" s="22" t="s">
         <v>20</v>
@@ -4420,7 +4417,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>111</v>
@@ -4457,7 +4454,7 @@
       </c>
       <c r="Q53" s="22"/>
       <c r="R53" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S53" s="22" t="s">
         <v>20</v>
@@ -4563,7 +4560,7 @@
         <v>20</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M55" s="22" t="s">
         <v>128</v>
@@ -4762,7 +4759,7 @@
       </c>
       <c r="Q58" s="22"/>
       <c r="R58" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S58" s="22" t="s">
         <v>20</v>
@@ -6454,7 +6451,7 @@
         <v>20</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M86" s="22" t="s">
         <v>75</v>
@@ -7613,7 +7610,7 @@
         <v>20</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M105" s="22" t="s">
         <v>75</v>
@@ -7653,7 +7650,7 @@
         <v>20</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F106" s="22" t="s">
         <v>87</v>
@@ -7714,7 +7711,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F107" s="22" t="s">
         <v>72</v>
@@ -8300,7 +8297,7 @@
       </c>
       <c r="Q116" s="22"/>
       <c r="R116" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S116" s="22" t="s">
         <v>20</v>
@@ -8483,7 +8480,7 @@
       </c>
       <c r="Q119" s="22"/>
       <c r="R119" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S119" s="22" t="s">
         <v>20</v>
@@ -9016,7 +9013,7 @@
         <v>20</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M128" s="22" t="s">
         <v>75</v>
@@ -9117,7 +9114,7 @@
         <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F130" s="22" t="s">
         <v>111</v>
@@ -9154,7 +9151,7 @@
       </c>
       <c r="Q130" s="22"/>
       <c r="R130" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S130" s="22" t="s">
         <v>20</v>
@@ -9239,7 +9236,7 @@
         <v>20</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F132" s="22" t="s">
         <v>87</v>
@@ -10130,7 +10127,7 @@
       </c>
       <c r="Q146" s="22"/>
       <c r="R146" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S146" s="22" t="s">
         <v>20</v>
@@ -10276,7 +10273,7 @@
         <v>21</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F149" s="22" t="s">
         <v>126</v>
@@ -10337,7 +10334,7 @@
         <v>20</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F150" s="22" t="s">
         <v>80</v>
@@ -10642,7 +10639,7 @@
         <v>20</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F155" s="22" t="s">
         <v>80</v>
@@ -10801,7 +10798,7 @@
       </c>
       <c r="Q157" s="22"/>
       <c r="R157" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S157" s="22" t="s">
         <v>20</v>
@@ -10984,7 +10981,7 @@
       </c>
       <c r="Q160" s="22"/>
       <c r="R160" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S160" s="22" t="s">
         <v>20</v>
@@ -11984,7 +11981,7 @@
         <v>20</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F177" s="22" t="s">
         <v>111</v>
@@ -12066,7 +12063,7 @@
         <v>20</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M178" s="22" t="s">
         <v>83</v>
@@ -12472,7 +12469,7 @@
         <v>131</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F185" s="22" t="s">
         <v>72</v>
@@ -13424,7 +13421,7 @@
       </c>
       <c r="Q200" s="22"/>
       <c r="R200" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S200" s="22" t="s">
         <v>20</v>
@@ -13875,7 +13872,7 @@
         <v>20</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F208" s="22" t="s">
         <v>126</v>
@@ -13936,7 +13933,7 @@
         <v>20</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F209" s="22" t="s">
         <v>80</v>
@@ -14079,7 +14076,7 @@
         <v>20</v>
       </c>
       <c r="L211" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M211" s="22" t="s">
         <v>96</v>
@@ -14119,7 +14116,7 @@
         <v>131</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F212" s="22" t="s">
         <v>87</v>
@@ -14180,7 +14177,7 @@
         <v>20</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F213" s="22" t="s">
         <v>72</v>
@@ -14302,7 +14299,7 @@
         <v>21</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F215" s="22" t="s">
         <v>126</v>
@@ -14363,7 +14360,7 @@
         <v>20</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F216" s="22" t="s">
         <v>87</v>
@@ -14689,7 +14686,7 @@
         <v>20</v>
       </c>
       <c r="L221" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M221" s="22" t="s">
         <v>109</v>
@@ -15378,7 +15375,7 @@
       </c>
       <c r="Q232" s="22"/>
       <c r="R232" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S232" s="22" t="s">
         <v>20</v>
@@ -15500,7 +15497,7 @@
       </c>
       <c r="Q234" s="22"/>
       <c r="R234" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S234" s="22" t="s">
         <v>20</v>
@@ -15561,7 +15558,7 @@
       </c>
       <c r="Q235" s="22"/>
       <c r="R235" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S235" s="22" t="s">
         <v>20</v>
@@ -15585,7 +15582,7 @@
         <v>131</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F236" s="22" t="s">
         <v>20</v>
@@ -16049,7 +16046,7 @@
       </c>
       <c r="Q243" s="22"/>
       <c r="R243" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S243" s="22" t="s">
         <v>20</v>
@@ -17314,7 +17311,7 @@
         <v>20</v>
       </c>
       <c r="L264" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M264" s="22" t="s">
         <v>75</v>
@@ -17354,7 +17351,7 @@
         <v>20</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F265" s="22" t="s">
         <v>72</v>
@@ -17375,7 +17372,7 @@
         <v>20</v>
       </c>
       <c r="L265" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M265" s="22" t="s">
         <v>75</v>
@@ -17863,7 +17860,7 @@
         <v>20</v>
       </c>
       <c r="L273" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M273" s="22" t="s">
         <v>90</v>
@@ -17879,7 +17876,7 @@
       </c>
       <c r="Q273" s="22"/>
       <c r="R273" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S273" s="22" t="s">
         <v>20</v>
@@ -18107,7 +18104,7 @@
         <v>20</v>
       </c>
       <c r="L277" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M277" s="22" t="s">
         <v>129</v>
@@ -18123,7 +18120,7 @@
       </c>
       <c r="Q277" s="22"/>
       <c r="R277" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S277" s="22" t="s">
         <v>20</v>
@@ -19571,7 +19568,7 @@
         <v>20</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M301" s="22" t="s">
         <v>75</v>
@@ -19709,7 +19706,7 @@
       </c>
       <c r="Q303" s="22"/>
       <c r="R303" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S303" s="22" t="s">
         <v>20</v>
@@ -19937,7 +19934,7 @@
         <v>20</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M307" s="22" t="s">
         <v>66</v>
@@ -20404,7 +20401,7 @@
         <v>20</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F315" s="22" t="s">
         <v>43</v>
@@ -20486,7 +20483,7 @@
         <v>20</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M316" s="22" t="s">
         <v>129</v>
@@ -20563,7 +20560,7 @@
       </c>
       <c r="Q317" s="22"/>
       <c r="R317" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S317" s="22" t="s">
         <v>20</v>
@@ -20730,7 +20727,7 @@
         <v>20</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M320" s="22" t="s">
         <v>109</v>
@@ -20746,7 +20743,7 @@
       </c>
       <c r="Q320" s="22"/>
       <c r="R320" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S320" s="22" t="s">
         <v>20</v>
@@ -20892,7 +20889,7 @@
         <v>20</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F323" s="22" t="s">
         <v>119</v>
@@ -20990,7 +20987,7 @@
       </c>
       <c r="Q324" s="22"/>
       <c r="R324" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S324" s="22" t="s">
         <v>20</v>
@@ -21075,7 +21072,7 @@
         <v>20</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F326" s="22" t="s">
         <v>106</v>
@@ -21096,7 +21093,7 @@
         <v>20</v>
       </c>
       <c r="L326" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M326" s="22" t="s">
         <v>36</v>
@@ -21356,7 +21353,7 @@
       </c>
       <c r="Q330" s="22"/>
       <c r="R330" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S330" s="22" t="s">
         <v>20</v>
@@ -22393,7 +22390,7 @@
       </c>
       <c r="Q347" s="22"/>
       <c r="R347" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S347" s="22" t="s">
         <v>20</v>
@@ -22637,7 +22634,7 @@
       </c>
       <c r="Q351" s="22"/>
       <c r="R351" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S351" s="22" t="s">
         <v>20</v>
@@ -22759,7 +22756,7 @@
       </c>
       <c r="Q353" s="22"/>
       <c r="R353" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S353" s="22" t="s">
         <v>20</v>
@@ -23003,7 +23000,7 @@
       </c>
       <c r="Q357" s="22"/>
       <c r="R357" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S357" s="22" t="s">
         <v>20</v>
@@ -23109,7 +23106,7 @@
         <v>20</v>
       </c>
       <c r="L359" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M359" s="22" t="s">
         <v>83</v>
@@ -23615,7 +23612,7 @@
       </c>
       <c r="Q367" s="22"/>
       <c r="R367" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S367" s="22" t="s">
         <v>20</v>
@@ -24436,7 +24433,7 @@
         <v>131</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F381" s="22" t="s">
         <v>126</v>
@@ -24497,7 +24494,7 @@
         <v>20</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F382" s="22" t="s">
         <v>72</v>
@@ -25046,7 +25043,7 @@
         <v>20</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F391" s="22" t="s">
         <v>80</v>
@@ -25083,7 +25080,7 @@
       </c>
       <c r="Q391" s="22"/>
       <c r="R391" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S391" s="22" t="s">
         <v>20</v>
@@ -26059,7 +26056,7 @@
       </c>
       <c r="Q407" s="22"/>
       <c r="R407" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S407" s="22" t="s">
         <v>20</v>
@@ -26242,7 +26239,7 @@
       </c>
       <c r="Q410" s="22"/>
       <c r="R410" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S410" s="22" t="s">
         <v>20</v>
@@ -26730,7 +26727,7 @@
       </c>
       <c r="Q418" s="22"/>
       <c r="R418" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S418" s="22" t="s">
         <v>20</v>
@@ -26897,7 +26894,7 @@
         <v>20</v>
       </c>
       <c r="L421" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M421" s="22" t="s">
         <v>96</v>
@@ -26937,7 +26934,7 @@
         <v>131</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F422" s="22" t="s">
         <v>72</v>
@@ -26958,7 +26955,7 @@
         <v>20</v>
       </c>
       <c r="L422" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M422" s="22" t="s">
         <v>75</v>
@@ -27120,7 +27117,7 @@
         <v>20</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F425" s="22" t="s">
         <v>72</v>
@@ -27181,7 +27178,7 @@
         <v>20</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F426" s="22" t="s">
         <v>72</v>
@@ -28361,7 +28358,7 @@
         <v>20</v>
       </c>
       <c r="L445" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M445" s="22" t="s">
         <v>96</v>
@@ -28401,7 +28398,7 @@
         <v>131</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F446" s="22" t="s">
         <v>87</v>
@@ -28560,7 +28557,7 @@
       </c>
       <c r="Q448" s="22"/>
       <c r="R448" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S448" s="22" t="s">
         <v>20</v>
@@ -28706,7 +28703,7 @@
         <v>20</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F451" s="22" t="s">
         <v>87</v>
@@ -28727,7 +28724,7 @@
         <v>20</v>
       </c>
       <c r="L451" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M451" s="22" t="s">
         <v>83</v>
@@ -28849,7 +28846,7 @@
         <v>20</v>
       </c>
       <c r="L453" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M453" s="22" t="s">
         <v>36</v>
@@ -28971,7 +28968,7 @@
         <v>20</v>
       </c>
       <c r="L455" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M455" s="22" t="s">
         <v>66</v>
@@ -29337,7 +29334,7 @@
         <v>20</v>
       </c>
       <c r="L461" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M461" s="22" t="s">
         <v>129</v>
@@ -29353,7 +29350,7 @@
       </c>
       <c r="Q461" s="22"/>
       <c r="R461" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S461" s="22" t="s">
         <v>20</v>
@@ -29377,7 +29374,7 @@
         <v>131</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F462" s="22" t="s">
         <v>72</v>
@@ -29841,7 +29838,7 @@
       </c>
       <c r="Q469" s="22"/>
       <c r="R469" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S469" s="22" t="s">
         <v>20</v>
@@ -30414,7 +30411,7 @@
         <v>20</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F479" s="22" t="s">
         <v>80</v>
@@ -30435,7 +30432,7 @@
         <v>20</v>
       </c>
       <c r="L479" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M479" s="22" t="s">
         <v>75</v>
@@ -30451,7 +30448,7 @@
       </c>
       <c r="Q479" s="22"/>
       <c r="R479" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S479" s="22" t="s">
         <v>20</v>
@@ -30475,7 +30472,7 @@
         <v>131</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F480" s="22" t="s">
         <v>72</v>
@@ -31756,7 +31753,7 @@
         <v>20</v>
       </c>
       <c r="E501" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F501" s="22" t="s">
         <v>80</v>
@@ -32098,7 +32095,7 @@
       </c>
       <c r="Q506" s="22"/>
       <c r="R506" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S506" s="22" t="s">
         <v>20</v>
@@ -32586,7 +32583,7 @@
       </c>
       <c r="Q514" s="22"/>
       <c r="R514" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S514" s="22" t="s">
         <v>20</v>
@@ -32814,7 +32811,7 @@
         <v>20</v>
       </c>
       <c r="L518" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M518" s="22" t="s">
         <v>109</v>
@@ -33058,7 +33055,7 @@
         <v>20</v>
       </c>
       <c r="L522" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M522" s="22" t="s">
         <v>90</v>
@@ -33098,7 +33095,7 @@
         <v>131</v>
       </c>
       <c r="E523" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F523" s="22" t="s">
         <v>126</v>
@@ -33159,7 +33156,7 @@
         <v>20</v>
       </c>
       <c r="E524" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F524" s="22" t="s">
         <v>80</v>
@@ -33851,7 +33848,7 @@
         <v>20</v>
       </c>
       <c r="L535" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M535" s="22" t="s">
         <v>141</v>
@@ -33891,7 +33888,7 @@
         <v>131</v>
       </c>
       <c r="E536" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F536" s="22" t="s">
         <v>72</v>
@@ -34233,7 +34230,7 @@
       </c>
       <c r="Q541" s="22"/>
       <c r="R541" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S541" s="22" t="s">
         <v>20</v>
@@ -34318,7 +34315,7 @@
         <v>20</v>
       </c>
       <c r="E543" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F543" s="22" t="s">
         <v>116</v>
@@ -34379,7 +34376,7 @@
         <v>131</v>
       </c>
       <c r="E544" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F544" s="22" t="s">
         <v>126</v>
@@ -34440,7 +34437,7 @@
         <v>20</v>
       </c>
       <c r="E545" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F545" s="22" t="s">
         <v>72</v>
@@ -34461,7 +34458,7 @@
         <v>20</v>
       </c>
       <c r="L545" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M545" s="22" t="s">
         <v>75</v>
@@ -35233,7 +35230,7 @@
         <v>20</v>
       </c>
       <c r="E558" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F558" s="22" t="s">
         <v>80</v>
@@ -35514,7 +35511,7 @@
       </c>
       <c r="Q562" s="22"/>
       <c r="R562" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S562" s="22" t="s">
         <v>20</v>
@@ -35880,7 +35877,7 @@
       </c>
       <c r="Q568" s="22"/>
       <c r="R568" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S568" s="22" t="s">
         <v>20</v>
@@ -36185,7 +36182,7 @@
       </c>
       <c r="Q573" s="22"/>
       <c r="R573" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S573" s="22" t="s">
         <v>20</v>
@@ -36331,7 +36328,7 @@
         <v>20</v>
       </c>
       <c r="E576" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F576" s="22" t="s">
         <v>80</v>
@@ -36840,7 +36837,7 @@
         <v>20</v>
       </c>
       <c r="L584" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M584" s="22" t="s">
         <v>129</v>
@@ -36917,7 +36914,7 @@
       </c>
       <c r="Q585" s="22"/>
       <c r="R585" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S585" s="22" t="s">
         <v>20</v>
@@ -36941,7 +36938,7 @@
         <v>131</v>
       </c>
       <c r="E586" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F586" s="22" t="s">
         <v>72</v>
@@ -37405,7 +37402,7 @@
       </c>
       <c r="Q593" s="22"/>
       <c r="R593" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S593" s="22" t="s">
         <v>20</v>
@@ -37551,7 +37548,7 @@
         <v>20</v>
       </c>
       <c r="E596" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F596" s="22" t="s">
         <v>72</v>
@@ -37572,7 +37569,7 @@
         <v>20</v>
       </c>
       <c r="L596" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M596" s="22" t="s">
         <v>75</v>
@@ -38222,7 +38219,7 @@
         <v>20</v>
       </c>
       <c r="E607" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F607" s="22" t="s">
         <v>72</v>
@@ -38344,7 +38341,7 @@
         <v>20</v>
       </c>
       <c r="E609" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F609" s="22" t="s">
         <v>72</v>
@@ -38365,7 +38362,7 @@
         <v>20</v>
       </c>
       <c r="L609" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M609" s="22" t="s">
         <v>75</v>
@@ -39261,7 +39258,7 @@
         <v>131</v>
       </c>
       <c r="E624" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F624" s="22" t="s">
         <v>72</v>
@@ -40241,7 +40238,7 @@
         <v>20</v>
       </c>
       <c r="E640" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F640" s="22" t="s">
         <v>119</v>
@@ -40278,7 +40275,7 @@
       </c>
       <c r="Q640" s="22"/>
       <c r="R640" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S640" s="22" t="s">
         <v>20</v>
@@ -40363,7 +40360,7 @@
         <v>20</v>
       </c>
       <c r="E642" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F642" s="22" t="s">
         <v>72</v>
@@ -40766,7 +40763,7 @@
       </c>
       <c r="Q648" s="22"/>
       <c r="R648" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S648" s="22" t="s">
         <v>20</v>
@@ -42092,7 +42089,7 @@
         <v>20</v>
       </c>
       <c r="L670" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M670" s="22" t="s">
         <v>141</v>
@@ -42132,7 +42129,7 @@
         <v>131</v>
       </c>
       <c r="E671" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F671" s="22" t="s">
         <v>72</v>
@@ -42596,7 +42593,7 @@
       </c>
       <c r="Q678" s="22"/>
       <c r="R678" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S678" s="22" t="s">
         <v>20</v>
@@ -42925,7 +42922,7 @@
         <v>20</v>
       </c>
       <c r="E684" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F684" s="22" t="s">
         <v>80</v>
@@ -43328,7 +43325,7 @@
       </c>
       <c r="Q690" s="22"/>
       <c r="R690" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S690" s="22" t="s">
         <v>20</v>
@@ -43434,7 +43431,7 @@
         <v>20</v>
       </c>
       <c r="L692" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M692" s="22" t="s">
         <v>75</v>
@@ -43535,7 +43532,7 @@
         <v>20</v>
       </c>
       <c r="E694" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F694" s="22" t="s">
         <v>87</v>
@@ -43877,7 +43874,7 @@
       </c>
       <c r="Q699" s="22"/>
       <c r="R699" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S699" s="22" t="s">
         <v>20</v>
@@ -44060,7 +44057,7 @@
       </c>
       <c r="Q702" s="22"/>
       <c r="R702" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S702" s="22" t="s">
         <v>20</v>
@@ -44614,7 +44611,7 @@
         <v>20</v>
       </c>
       <c r="S711" s="22" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
       <c r="T711" s="22" t="s">
         <v>20</v>
@@ -44977,7 +44974,7 @@
       </c>
       <c r="Q717" s="22"/>
       <c r="R717" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S717" s="22" t="s">
         <v>20</v>
@@ -45160,7 +45157,7 @@
       </c>
       <c r="Q720" s="22"/>
       <c r="R720" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S720" s="22" t="s">
         <v>20</v>
@@ -45449,7 +45446,7 @@
         <v>20</v>
       </c>
       <c r="L725" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M725" s="22" t="s">
         <v>119</v>
@@ -45550,7 +45547,7 @@
         <v>131</v>
       </c>
       <c r="E727" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F727" s="22" t="s">
         <v>126</v>
@@ -45611,7 +45608,7 @@
         <v>20</v>
       </c>
       <c r="E728" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F728" s="22" t="s">
         <v>72</v>
@@ -46404,7 +46401,7 @@
         <v>20</v>
       </c>
       <c r="E741" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F741" s="22" t="s">
         <v>87</v>
@@ -46526,7 +46523,7 @@
         <v>20</v>
       </c>
       <c r="E743" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F743" s="22" t="s">
         <v>80</v>
@@ -46685,7 +46682,7 @@
       </c>
       <c r="Q745" s="22"/>
       <c r="R745" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S745" s="22" t="s">
         <v>20</v>
@@ -47907,7 +47904,7 @@
       </c>
       <c r="Q765" s="22"/>
       <c r="R765" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S765" s="22" t="s">
         <v>20</v>
@@ -48395,7 +48392,7 @@
       </c>
       <c r="Q773" s="22"/>
       <c r="R773" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S773" s="22" t="s">
         <v>20</v>
@@ -48663,7 +48660,7 @@
         <v>21</v>
       </c>
       <c r="E778" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F778" s="22" t="s">
         <v>126</v>
@@ -48724,7 +48721,7 @@
         <v>20</v>
       </c>
       <c r="E779" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F779" s="22" t="s">
         <v>72</v>
@@ -48745,7 +48742,7 @@
         <v>20</v>
       </c>
       <c r="L779" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M779" s="22" t="s">
         <v>83</v>
@@ -49493,7 +49490,7 @@
       </c>
       <c r="Q791" s="22"/>
       <c r="R791" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S791" s="22" t="s">
         <v>20</v>
@@ -49554,7 +49551,7 @@
       </c>
       <c r="Q792" s="22"/>
       <c r="R792" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S792" s="22" t="s">
         <v>20</v>
@@ -50042,7 +50039,7 @@
       </c>
       <c r="Q800" s="22"/>
       <c r="R800" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S800" s="22" t="s">
         <v>20</v>
@@ -50188,7 +50185,7 @@
         <v>20</v>
       </c>
       <c r="E803" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F803" s="22" t="s">
         <v>80</v>
@@ -50249,7 +50246,7 @@
         <v>131</v>
       </c>
       <c r="E804" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F804" s="22" t="s">
         <v>126</v>
@@ -50310,7 +50307,7 @@
         <v>20</v>
       </c>
       <c r="E805" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F805" s="22" t="s">
         <v>109</v>
@@ -50347,7 +50344,7 @@
       </c>
       <c r="Q805" s="22"/>
       <c r="R805" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S805" s="22" t="s">
         <v>20</v>
@@ -50432,7 +50429,7 @@
         <v>20</v>
       </c>
       <c r="E807" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F807" s="22" t="s">
         <v>87</v>
@@ -50652,7 +50649,7 @@
       </c>
       <c r="Q810" s="22"/>
       <c r="R810" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S810" s="22" t="s">
         <v>20</v>
@@ -50798,7 +50795,7 @@
         <v>21</v>
       </c>
       <c r="E813" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F813" s="22" t="s">
         <v>87</v>
@@ -51018,7 +51015,7 @@
       </c>
       <c r="Q816" s="22"/>
       <c r="R816" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S816" s="22" t="s">
         <v>20</v>
@@ -51408,7 +51405,7 @@
         <v>20</v>
       </c>
       <c r="E823" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F823" s="22" t="s">
         <v>80</v>
@@ -51530,7 +51527,7 @@
         <v>20</v>
       </c>
       <c r="E825" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F825" s="22" t="s">
         <v>80</v>
@@ -51551,7 +51548,7 @@
         <v>20</v>
       </c>
       <c r="L825" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M825" s="22" t="s">
         <v>75</v>
@@ -51978,7 +51975,7 @@
         <v>20</v>
       </c>
       <c r="L832" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M832" s="22" t="s">
         <v>75</v>
@@ -52421,7 +52418,7 @@
       </c>
       <c r="Q839" s="22"/>
       <c r="R839" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S839" s="22" t="s">
         <v>20</v>
@@ -52543,7 +52540,7 @@
       </c>
       <c r="Q841" s="22"/>
       <c r="R841" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S841" s="22" t="s">
         <v>20</v>
@@ -53423,7 +53420,7 @@
         <v>20</v>
       </c>
       <c r="E856" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F856" s="22" t="s">
         <v>72</v>
@@ -53606,7 +53603,7 @@
         <v>20</v>
       </c>
       <c r="E859" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F859" s="22" t="s">
         <v>72</v>
@@ -53765,7 +53762,7 @@
       </c>
       <c r="Q861" s="22"/>
       <c r="R861" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S861" s="22" t="s">
         <v>20</v>
@@ -54192,7 +54189,7 @@
       </c>
       <c r="Q868" s="22"/>
       <c r="R868" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S868" s="22" t="s">
         <v>20</v>
@@ -54887,7 +54884,7 @@
         <v>20</v>
       </c>
       <c r="E880" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F880" s="22" t="s">
         <v>80</v>
@@ -55518,7 +55515,7 @@
         <v>20</v>
       </c>
       <c r="L890" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M890" s="22" t="s">
         <v>109</v>
@@ -55534,7 +55531,7 @@
       </c>
       <c r="Q890" s="22"/>
       <c r="R890" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S890" s="22" t="s">
         <v>20</v>
@@ -55717,7 +55714,7 @@
       </c>
       <c r="Q893" s="22"/>
       <c r="R893" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S893" s="22" t="s">
         <v>20</v>
@@ -55741,7 +55738,7 @@
         <v>20</v>
       </c>
       <c r="E894" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F894" s="22" t="s">
         <v>72</v>
@@ -55863,7 +55860,7 @@
         <v>20</v>
       </c>
       <c r="E896" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F896" s="22" t="s">
         <v>72</v>
@@ -56268,7 +56265,7 @@
       </c>
       <c r="Q902" s="22"/>
       <c r="R902" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S902" s="22" t="s">
         <v>20</v>
@@ -56599,7 +56596,7 @@
         <v>131</v>
       </c>
       <c r="E908" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F908" s="22" t="s">
         <v>72</v>
@@ -57368,7 +57365,7 @@
       </c>
       <c r="Q920" s="22"/>
       <c r="R920" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S920" s="22" t="s">
         <v>20</v>
@@ -58405,7 +58402,7 @@
       </c>
       <c r="Q937" s="22"/>
       <c r="R937" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S937" s="22" t="s">
         <v>20</v>
@@ -58917,7 +58914,7 @@
         <v>20</v>
       </c>
       <c r="E946" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F946" s="22" t="s">
         <v>80</v>
@@ -59182,7 +59179,7 @@
         <v>20</v>
       </c>
       <c r="L950" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M950" s="22" t="s">
         <v>114</v>
@@ -59588,7 +59585,7 @@
         <v>20</v>
       </c>
       <c r="E957" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F957" s="22" t="s">
         <v>87</v>
@@ -59771,7 +59768,7 @@
         <v>20</v>
       </c>
       <c r="E960" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F960" s="22" t="s">
         <v>72</v>
@@ -59832,7 +59829,7 @@
         <v>20</v>
       </c>
       <c r="E961" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F961" s="22" t="s">
         <v>126</v>
@@ -59893,7 +59890,7 @@
         <v>20</v>
       </c>
       <c r="E962" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F962" s="22" t="s">
         <v>72</v>
@@ -59930,7 +59927,7 @@
       </c>
       <c r="Q962" s="22"/>
       <c r="R962" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S962" s="22" t="s">
         <v>20</v>
@@ -60662,7 +60659,7 @@
       </c>
       <c r="Q974" s="22"/>
       <c r="R974" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S974" s="22" t="s">
         <v>20</v>
@@ -60747,7 +60744,7 @@
         <v>131</v>
       </c>
       <c r="E976" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F976" s="22" t="s">
         <v>72</v>
@@ -60906,7 +60903,7 @@
       </c>
       <c r="Q978" s="22"/>
       <c r="R978" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S978" s="22" t="s">
         <v>20</v>
@@ -61134,7 +61131,7 @@
         <v>20</v>
       </c>
       <c r="L982" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M982" s="22" t="s">
         <v>75</v>
@@ -61235,7 +61232,7 @@
         <v>21</v>
       </c>
       <c r="E984" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F984" s="22" t="s">
         <v>126</v>
@@ -61296,7 +61293,7 @@
         <v>20</v>
       </c>
       <c r="E985" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F985" s="22" t="s">
         <v>87</v>
@@ -61723,7 +61720,7 @@
         <v>131</v>
       </c>
       <c r="E992" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F992" s="22" t="s">
         <v>126</v>
@@ -61784,7 +61781,7 @@
         <v>20</v>
       </c>
       <c r="E993" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F993" s="22" t="s">
         <v>80</v>
@@ -61943,7 +61940,7 @@
       </c>
       <c r="Q995" s="22"/>
       <c r="R995" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S995" s="22" t="s">
         <v>20</v>
@@ -62433,7 +62430,7 @@
       </c>
       <c r="Q1003" s="22"/>
       <c r="R1003" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1003" s="22" t="s">
         <v>20</v>
@@ -62494,7 +62491,7 @@
       </c>
       <c r="Q1004" s="22"/>
       <c r="R1004" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1004" s="22" t="s">
         <v>20</v>
@@ -62555,7 +62552,7 @@
       </c>
       <c r="Q1005" s="22"/>
       <c r="R1005" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1005" s="22" t="s">
         <v>20</v>
@@ -62823,7 +62820,7 @@
         <v>131</v>
       </c>
       <c r="E1010" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1010" s="22" t="s">
         <v>126</v>
@@ -62884,7 +62881,7 @@
         <v>20</v>
       </c>
       <c r="E1011" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1011" s="22" t="s">
         <v>80</v>
@@ -63496,7 +63493,7 @@
         <v>20</v>
       </c>
       <c r="E1021" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1021" s="22" t="s">
         <v>114</v>
@@ -63655,7 +63652,7 @@
       </c>
       <c r="Q1023" s="22"/>
       <c r="R1023" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1023" s="22" t="s">
         <v>20</v>
@@ -64082,7 +64079,7 @@
       </c>
       <c r="Q1030" s="22"/>
       <c r="R1030" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1030" s="22" t="s">
         <v>20</v>
@@ -64204,7 +64201,7 @@
       </c>
       <c r="Q1032" s="22"/>
       <c r="R1032" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1032" s="22" t="s">
         <v>20</v>
@@ -64411,7 +64408,7 @@
         <v>20</v>
       </c>
       <c r="E1036" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1036" s="22" t="s">
         <v>126</v>
@@ -64472,7 +64469,7 @@
         <v>20</v>
       </c>
       <c r="E1037" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1037" s="22" t="s">
         <v>80</v>
@@ -64493,7 +64490,7 @@
         <v>20</v>
       </c>
       <c r="L1037" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1037" s="22" t="s">
         <v>75</v>
@@ -64615,7 +64612,7 @@
         <v>20</v>
       </c>
       <c r="L1039" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1039" s="22" t="s">
         <v>109</v>
@@ -64631,7 +64628,7 @@
       </c>
       <c r="Q1039" s="22"/>
       <c r="R1039" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1039" s="22" t="s">
         <v>20</v>
@@ -64859,7 +64856,7 @@
         <v>20</v>
       </c>
       <c r="L1043" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1043" s="22" t="s">
         <v>122</v>
@@ -64899,7 +64896,7 @@
         <v>131</v>
       </c>
       <c r="E1044" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1044" s="22" t="s">
         <v>72</v>
@@ -65241,7 +65238,7 @@
       </c>
       <c r="Q1049" s="22"/>
       <c r="R1049" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1049" s="22" t="s">
         <v>20</v>
@@ -65668,7 +65665,7 @@
       </c>
       <c r="Q1056" s="22"/>
       <c r="R1056" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1056" s="22" t="s">
         <v>20</v>
@@ -65790,7 +65787,7 @@
       </c>
       <c r="Q1058" s="22"/>
       <c r="R1058" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1058" s="22" t="s">
         <v>20</v>
@@ -65912,7 +65909,7 @@
       </c>
       <c r="Q1060" s="22"/>
       <c r="R1060" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1060" s="22" t="s">
         <v>20</v>
@@ -65973,7 +65970,7 @@
       </c>
       <c r="Q1061" s="22"/>
       <c r="R1061" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1061" s="22" t="s">
         <v>20</v>
@@ -66034,7 +66031,7 @@
       </c>
       <c r="Q1062" s="22"/>
       <c r="R1062" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1062" s="22" t="s">
         <v>20</v>
@@ -66180,7 +66177,7 @@
         <v>20</v>
       </c>
       <c r="E1065" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1065" s="22" t="s">
         <v>119</v>
@@ -66201,7 +66198,7 @@
         <v>20</v>
       </c>
       <c r="L1065" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1065" s="22" t="s">
         <v>114</v>
@@ -66996,7 +66993,7 @@
         <v>20</v>
       </c>
       <c r="L1078" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M1078" s="22" t="s">
         <v>83</v>
@@ -67219,7 +67216,7 @@
         <v>20</v>
       </c>
       <c r="E1082" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1082" s="22" t="s">
         <v>100</v>
@@ -67280,7 +67277,7 @@
         <v>20</v>
       </c>
       <c r="E1083" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1083" s="22" t="s">
         <v>111</v>
@@ -67484,7 +67481,7 @@
         <v>20</v>
       </c>
       <c r="L1086" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1086" s="22" t="s">
         <v>90</v>
@@ -68073,7 +68070,7 @@
         <v>20</v>
       </c>
       <c r="E1096" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1096" s="22" t="s">
         <v>111</v>
@@ -68094,7 +68091,7 @@
         <v>20</v>
       </c>
       <c r="L1096" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1096" s="22" t="s">
         <v>36</v>
@@ -68744,7 +68741,7 @@
         <v>20</v>
       </c>
       <c r="E1107" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1107" s="22" t="s">
         <v>80</v>
@@ -69192,7 +69189,7 @@
         <v>20</v>
       </c>
       <c r="L1114" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1114" s="22" t="s">
         <v>141</v>
@@ -69232,7 +69229,7 @@
         <v>131</v>
       </c>
       <c r="E1115" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1115" s="22" t="s">
         <v>72</v>
@@ -69293,7 +69290,7 @@
         <v>20</v>
       </c>
       <c r="E1116" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1116" s="22" t="s">
         <v>72</v>
@@ -69375,7 +69372,7 @@
         <v>20</v>
       </c>
       <c r="L1117" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M1117" s="22" t="s">
         <v>75</v>
@@ -69415,7 +69412,7 @@
         <v>20</v>
       </c>
       <c r="E1118" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1118" s="22" t="s">
         <v>87</v>
@@ -69476,7 +69473,7 @@
         <v>20</v>
       </c>
       <c r="E1119" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1119" s="22" t="s">
         <v>72</v>
@@ -70229,7 +70226,7 @@
         <v>20</v>
       </c>
       <c r="L1131" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M1131" s="22" t="s">
         <v>75</v>
@@ -70330,7 +70327,7 @@
         <v>20</v>
       </c>
       <c r="E1133" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1133" s="22" t="s">
         <v>87</v>
@@ -70351,7 +70348,7 @@
         <v>20</v>
       </c>
       <c r="L1133" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M1133" s="22" t="s">
         <v>75</v>
@@ -70452,7 +70449,7 @@
         <v>20</v>
       </c>
       <c r="E1135" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1135" s="22" t="s">
         <v>72</v>
@@ -70916,7 +70913,7 @@
       </c>
       <c r="Q1142" s="22"/>
       <c r="R1142" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1142" s="22" t="s">
         <v>20</v>
@@ -71001,7 +70998,7 @@
         <v>20</v>
       </c>
       <c r="E1144" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F1144" s="22" t="s">
         <v>143</v>
@@ -71526,7 +71523,7 @@
       </c>
       <c r="Q1152" s="22"/>
       <c r="R1152" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1152" s="22" t="s">
         <v>20</v>
@@ -71632,7 +71629,7 @@
         <v>20</v>
       </c>
       <c r="L1154" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1154" s="22" t="s">
         <v>83</v>
@@ -71648,7 +71645,7 @@
       </c>
       <c r="Q1154" s="22"/>
       <c r="R1154" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1154" s="22" t="s">
         <v>20</v>
@@ -71857,7 +71854,7 @@
         <v>131</v>
       </c>
       <c r="E1158" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1158" s="22" t="s">
         <v>72</v>
@@ -72467,7 +72464,7 @@
         <v>131</v>
       </c>
       <c r="E1168" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1168" s="22" t="s">
         <v>72</v>
@@ -72504,7 +72501,7 @@
       </c>
       <c r="Q1168" s="22"/>
       <c r="R1168" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1168" s="22" t="s">
         <v>20</v>
@@ -72793,7 +72790,7 @@
         <v>20</v>
       </c>
       <c r="L1173" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1173" s="22" t="s">
         <v>90</v>
@@ -73283,7 +73280,7 @@
         <v>20</v>
       </c>
       <c r="L1181" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1181" s="22" t="s">
         <v>36</v>
@@ -73299,7 +73296,7 @@
       </c>
       <c r="Q1181" s="22"/>
       <c r="R1181" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1181" s="22" t="s">
         <v>20</v>
@@ -74198,7 +74195,7 @@
         <v>20</v>
       </c>
       <c r="L1196" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1196" s="22" t="s">
         <v>141</v>
@@ -74238,7 +74235,7 @@
         <v>131</v>
       </c>
       <c r="E1197" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1197" s="22" t="s">
         <v>72</v>
@@ -74686,7 +74683,7 @@
         <v>20</v>
       </c>
       <c r="L1204" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1204" s="22" t="s">
         <v>75</v>
@@ -75129,7 +75126,7 @@
       </c>
       <c r="Q1211" s="22"/>
       <c r="R1211" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1211" s="22" t="s">
         <v>20</v>
@@ -75144,7 +75141,7 @@
         <v>1073</v>
       </c>
       <c r="B1212" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C1212" s="3" t="s">
         <v>20</v>
@@ -75214,7 +75211,7 @@
         <v>131</v>
       </c>
       <c r="E1213" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1213" s="22" t="s">
         <v>72</v>
@@ -75479,7 +75476,7 @@
         <v>20</v>
       </c>
       <c r="L1217" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1217" s="22" t="s">
         <v>75</v>
@@ -75540,7 +75537,7 @@
         <v>20</v>
       </c>
       <c r="L1218" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1218" s="22" t="s">
         <v>129</v>
@@ -75556,7 +75553,7 @@
       </c>
       <c r="Q1218" s="22"/>
       <c r="R1218" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1218" s="22" t="s">
         <v>20</v>
@@ -75571,7 +75568,7 @@
         <v>1080</v>
       </c>
       <c r="B1219" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1219" s="3" t="s">
         <v>20</v>
@@ -75580,7 +75577,7 @@
         <v>131</v>
       </c>
       <c r="E1219" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1219" s="22" t="s">
         <v>80</v>
@@ -76152,7 +76149,7 @@
         <v>20</v>
       </c>
       <c r="L1228" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1228" s="22" t="s">
         <v>90</v>
@@ -76274,7 +76271,7 @@
         <v>20</v>
       </c>
       <c r="L1230" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1230" s="22" t="s">
         <v>129</v>
@@ -76290,7 +76287,7 @@
       </c>
       <c r="Q1230" s="22"/>
       <c r="R1230" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1230" s="22" t="s">
         <v>20</v>
@@ -76305,7 +76302,7 @@
         <v>1091</v>
       </c>
       <c r="B1231" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C1231" s="3" t="s">
         <v>20</v>
@@ -76314,7 +76311,7 @@
         <v>131</v>
       </c>
       <c r="E1231" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1231" s="22" t="s">
         <v>72</v>
@@ -76703,7 +76700,7 @@
         <v>20</v>
       </c>
       <c r="L1237" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M1237" s="22" t="s">
         <v>129</v>
@@ -76719,7 +76716,7 @@
       </c>
       <c r="Q1237" s="22"/>
       <c r="R1237" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S1237" s="22" t="s">
         <v>20</v>
@@ -76734,7 +76731,7 @@
         <v>1097</v>
       </c>
       <c r="B1238" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C1238" s="3" t="s">
         <v>20</v>
@@ -76743,7 +76740,7 @@
         <v>131</v>
       </c>
       <c r="E1238" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1238" s="22" t="s">
         <v>72</v>
@@ -76989,7 +76986,7 @@
         <v>20</v>
       </c>
       <c r="E1242" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F1242" s="22" t="s">
         <v>87</v>
@@ -77050,7 +77047,7 @@
         <v>20</v>
       </c>
       <c r="E1243" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1243" s="22" t="s">
         <v>72</v>
@@ -77392,7 +77389,7 @@
       </c>
       <c r="Q1248" s="22"/>
       <c r="R1248" s="22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S1248" s="22" t="s">
         <v>20</v>
@@ -77468,7 +77465,7 @@
         <v>1107</v>
       </c>
       <c r="B1250" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C1250" s="3" t="s">
         <v>20</v>
